--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-615241.3968311535</v>
+        <v>-618121.7716449826</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9777368.694373136</v>
+        <v>9777368.694373157</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>112.7332585856115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>150.3930467693298</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>91.52821252984259</v>
+        <v>159.5447207994803</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>161.0094524652174</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>378.1797144005757</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,13 +950,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>229.4031638118342</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33.50409802796439</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>129.6469325041248</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>218.8688303485817</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>51.30079766335502</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>154.8229679689708</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>299.6514294063242</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>120.8355578824649</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>62.47562335830036</v>
+        <v>4.751300331318862</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081974</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561458</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>95.18303812697398</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440909</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108366</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323831</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.102241693787111</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2059,7 +2059,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>43.35999988698418</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.7052104936969</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>7.018581172441533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.44601915224106</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>84.56702400646616</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>205.2104226777303</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>14.76058440587529</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>72.26558381699921</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445519</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969982</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.7633819196883</v>
+        <v>2106.053534334646</v>
       </c>
       <c r="C2" t="n">
-        <v>578.8008649792765</v>
+        <v>2106.053534334646</v>
       </c>
       <c r="D2" t="n">
-        <v>578.8008649792765</v>
+        <v>1747.787835727895</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>1361.999583129651</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>951.0136783400433</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>533.0498702382301</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>205.855150274233</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>1724.502553959622</v>
+        <v>2106.053534334646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1334.36322198381</v>
+        <v>2106.053534334646</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>554.6442689908469</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>554.6442689908469</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>554.6442689908469</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>554.6442689908469</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>554.6442689908469</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762914</v>
+        <v>1581.134716985073</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1212.172200044661</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>853.9065014379107</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>853.9065014379107</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1761.826093986339</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1409.057438716225</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>1409.057438716225</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.918106740413</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>381.8627885497561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>381.8627885497561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2050.019976259699</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>1681.057459319287</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1322.791760712536</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>937.0035081142921</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>526.0176033246846</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>512.0941992632755</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>184.8994792992784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.019976259699</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570173</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>210.3298181526582</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>433.4288473033711</v>
       </c>
       <c r="H11" t="n">
-        <v>135.8452469121384</v>
+        <v>135.8452469121383</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>282.7274791106324</v>
+        <v>282.7274791106325</v>
       </c>
       <c r="K11" t="n">
-        <v>937.4508112459318</v>
+        <v>616.546852800479</v>
       </c>
       <c r="L11" t="n">
-        <v>1801.969626899286</v>
+        <v>1481.065668453834</v>
       </c>
       <c r="M11" t="n">
-        <v>2335.501531571211</v>
+        <v>2459.615971283662</v>
       </c>
       <c r="N11" t="n">
-        <v>2882.280348629993</v>
+        <v>3439.368243510309</v>
       </c>
       <c r="O11" t="n">
-        <v>3762.244998959447</v>
+        <v>3990.339612910689</v>
       </c>
       <c r="P11" t="n">
-        <v>4385.113979267868</v>
+        <v>4385.113979267867</v>
       </c>
       <c r="Q11" t="n">
-        <v>4633.40034102355</v>
+        <v>4633.400341023549</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4582.126739107447</v>
+        <v>4582.126739107446</v>
       </c>
       <c r="T11" t="n">
-        <v>4460.07062003425</v>
+        <v>4376.148991491668</v>
       </c>
       <c r="U11" t="n">
-        <v>4206.540143308087</v>
+        <v>4122.618514765505</v>
       </c>
       <c r="V11" t="n">
-        <v>3875.477255964517</v>
+        <v>3791.555627421934</v>
       </c>
       <c r="W11" t="n">
-        <v>3522.708600694402</v>
+        <v>3438.78697215182</v>
       </c>
       <c r="X11" t="n">
-        <v>3149.242842433322</v>
+        <v>3065.32121389074</v>
       </c>
       <c r="Y11" t="n">
-        <v>2759.103510457511</v>
+        <v>2675.181881914928</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>968.8800862005319</v>
+        <v>968.8800862005328</v>
       </c>
       <c r="C12" t="n">
-        <v>794.4270569194049</v>
+        <v>794.4270569194058</v>
       </c>
       <c r="D12" t="n">
-        <v>645.4926472581537</v>
+        <v>645.4926472581546</v>
       </c>
       <c r="E12" t="n">
-        <v>486.2551922526982</v>
+        <v>486.2551922526991</v>
       </c>
       <c r="F12" t="n">
-        <v>339.7206342795832</v>
+        <v>339.7206342795841</v>
       </c>
       <c r="G12" t="n">
-        <v>203.3575341122016</v>
+        <v>203.3575341122025</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8556397500691</v>
+        <v>112.8556397500694</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>187.5256176422243</v>
+        <v>187.5256176422246</v>
       </c>
       <c r="K12" t="n">
-        <v>425.7898166225714</v>
+        <v>425.789816622572</v>
       </c>
       <c r="L12" t="n">
-        <v>792.4879769352369</v>
+        <v>792.4879769352374</v>
       </c>
       <c r="M12" t="n">
         <v>1239.764302157553</v>
       </c>
       <c r="N12" t="n">
-        <v>1713.287345712007</v>
+        <v>1713.287345712008</v>
       </c>
       <c r="O12" t="n">
         <v>2124.248625130062</v>
@@ -5139,31 +5139,31 @@
         <v>2434.748216606165</v>
       </c>
       <c r="Q12" t="n">
-        <v>2592.389774252765</v>
+        <v>2592.389774252766</v>
       </c>
       <c r="R12" t="n">
-        <v>2592.24542084528</v>
+        <v>2592.245420845281</v>
       </c>
       <c r="S12" t="n">
-        <v>2462.80753433876</v>
+        <v>2462.807534338761</v>
       </c>
       <c r="T12" t="n">
         <v>2270.164534016616</v>
       </c>
       <c r="U12" t="n">
-        <v>2042.096687151031</v>
+        <v>2042.096687151032</v>
       </c>
       <c r="V12" t="n">
-        <v>1806.944578919288</v>
+        <v>1806.944578919289</v>
       </c>
       <c r="W12" t="n">
-        <v>1552.707222191087</v>
+        <v>1552.707222191088</v>
       </c>
       <c r="X12" t="n">
-        <v>1344.855721985554</v>
+        <v>1344.855721985555</v>
       </c>
       <c r="Y12" t="n">
-        <v>1137.0954232206</v>
+        <v>1137.095423220601</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>748.091905687298</v>
+        <v>809.8291820177662</v>
       </c>
       <c r="C13" t="n">
-        <v>748.091905687298</v>
+        <v>640.8929990898594</v>
       </c>
       <c r="D13" t="n">
-        <v>597.9752662749622</v>
+        <v>490.7763596775236</v>
       </c>
       <c r="E13" t="n">
-        <v>450.0621726925691</v>
+        <v>342.8632660951305</v>
       </c>
       <c r="F13" t="n">
-        <v>303.1722251946587</v>
+        <v>195.9733185972201</v>
       </c>
       <c r="G13" t="n">
-        <v>240.0655349337493</v>
+        <v>191.1740253332617</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160704</v>
+        <v>191.1740253332617</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
         <v>138.9709805985426</v>
       </c>
       <c r="K13" t="n">
-        <v>342.9581635474189</v>
+        <v>342.958163547419</v>
       </c>
       <c r="L13" t="n">
-        <v>659.517961995915</v>
+        <v>659.5179619959151</v>
       </c>
       <c r="M13" t="n">
         <v>1003.675007595464</v>
@@ -5215,34 +5215,34 @@
         <v>1644.412983221742</v>
       </c>
       <c r="P13" t="n">
-        <v>1877.020483655401</v>
+        <v>1877.020483655402</v>
       </c>
       <c r="Q13" t="n">
         <v>1954.630779807916</v>
       </c>
       <c r="R13" t="n">
-        <v>1954.630779807916</v>
+        <v>1864.800322565445</v>
       </c>
       <c r="S13" t="n">
-        <v>1762.944895634742</v>
+        <v>1864.800322565445</v>
       </c>
       <c r="T13" t="n">
-        <v>1762.944895634742</v>
+        <v>1643.03370713497</v>
       </c>
       <c r="U13" t="n">
-        <v>1473.842028760385</v>
+        <v>1353.930840260614</v>
       </c>
       <c r="V13" t="n">
-        <v>1219.157540554498</v>
+        <v>1099.246352054727</v>
       </c>
       <c r="W13" t="n">
-        <v>929.7403705175377</v>
+        <v>809.8291820177662</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7403705175377</v>
+        <v>809.8291820177662</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7403705175377</v>
+        <v>809.8291820177662</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890958</v>
@@ -5264,46 +5264,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160724</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507196</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384009</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944175</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234018</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151123</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5318,10 +5318,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L15" t="n">
-        <v>142.676769632788</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849149</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.79108728425</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>897.5367589213677</v>
+        <v>707.7042115721531</v>
       </c>
       <c r="C16" t="n">
-        <v>728.6005759934608</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D16" t="n">
-        <v>728.6005759934608</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E16" t="n">
-        <v>632.4560930369214</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135899</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520203</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411608</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117242</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948581</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139317</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931024</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946053</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782257</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335692</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294194</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033124</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747506</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062233</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856346</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819385</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213677</v>
+        <v>897.5367589213697</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.5367589213677</v>
+        <v>889.3526764023928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127637</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160769</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259444</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160706</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L18" t="n">
-        <v>142.6767696327952</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849206</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284254</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284447</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710521</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5634,7 +5634,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>615.3585376238362</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="C19" t="n">
-        <v>615.3585376238362</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D19" t="n">
-        <v>465.2418982115005</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E19" t="n">
-        <v>465.2418982115005</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F19" t="n">
-        <v>318.3519507135901</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135901</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103726</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897839</v>
+        <v>1625.829988378415</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860878</v>
+        <v>1336.412818341455</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628607</v>
+        <v>1108.423267443437</v>
       </c>
       <c r="Y19" t="n">
-        <v>797.007002454076</v>
+        <v>887.6306882999071</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944171</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800308</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149644</v>
+        <v>274.040400188367</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0894235587139</v>
+        <v>764.7727330321189</v>
       </c>
       <c r="M21" t="n">
-        <v>915.0894235587139</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="N21" t="n">
-        <v>1537.185386958048</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O21" t="n">
-        <v>2084.06186195824</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2503.645380384314</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599890908</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8655840573317</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8655840573317</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9524904749386</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160706</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103726</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897839</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860878</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628607</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193306</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831372</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963574</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160771</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895494</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6042,61 +6042,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668096</v>
+        <v>243.9627910411584</v>
       </c>
       <c r="L24" t="n">
-        <v>572.0050724668096</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="M24" t="n">
-        <v>1164.023426718935</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.119390118269</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O24" t="n">
-        <v>2332.995865118461</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149475921</v>
+        <v>576.8886734028454</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196852</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="D25" t="n">
-        <v>240.7382956495174</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7382956495174</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F25" t="n">
-        <v>93.84834815160706</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062227</v>
+        <v>1751.42092651748</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.94347985634</v>
+        <v>1496.736438311593</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819379</v>
+        <v>1207.319268274633</v>
       </c>
       <c r="X25" t="n">
-        <v>897.536758921362</v>
+        <v>979.3297173766152</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778318</v>
+        <v>758.5371382330851</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,10 +6227,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>802.9288273958734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>652.8121879835377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>504.8990944011446</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>358.0091469032342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>190.8130476181141</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,7 +6953,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,19 +7573,19 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380722</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8690,22 +8690,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>48.48373587984088</v>
       </c>
       <c r="P11" t="n">
-        <v>230.3985999507499</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>51.31264782909705</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>51.31264782911228</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782911228</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>269.1971114866503</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>210.1863798789888</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>83.08241225715636</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.08241225715524</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.5501849007279</v>
+        <v>161.2745079277094</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>51.25092451959519</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>210.4824116583077</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>208.7776434368438</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.87944285839791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>160.2282399261863</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.453989791954</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>64.0484490117462</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>80.97502887069015</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>145.139866510289</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1094919.551202252</v>
+        <v>1094919.551202251</v>
       </c>
     </row>
     <row r="3">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1174632.177305595</v>
+        <v>1174632.177305596</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>213706.3829907183</v>
+        <v>213706.3829907182</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
         <v>236265.064127489</v>
@@ -26329,13 +26329,13 @@
         <v>242004.8931355679</v>
       </c>
       <c r="H2" t="n">
-        <v>242004.8931355678</v>
+        <v>242004.8931355677</v>
       </c>
       <c r="I2" t="n">
         <v>242004.8931355677</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26347,7 +26347,7 @@
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>720985.2833793794</v>
+        <v>720985.2833793793</v>
       </c>
       <c r="F3" t="n">
-        <v>212048.212652153</v>
+        <v>212048.212652155</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.314743317246519e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792255</v>
+        <v>183669.0093792214</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139029.4535225244</v>
+        <v>139029.4535225239</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>23899.76556585632</v>
+        <v>23899.76556585628</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855201</v>
+        <v>5781.971894854999</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855413</v>
+        <v>5781.971894855006</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855041</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855413</v>
+        <v>5781.971894855018</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="M4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13058.45186476393</v>
+      </c>
+      <c r="O4" t="n">
         <v>13058.45186476391</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13058.45186476391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13058.4518647639</v>
       </c>
       <c r="P4" t="n">
         <v>13058.4518647639</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95081.87666815525</v>
+        <v>95081.87666815524</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-598150.02780976</v>
+        <v>-598421.7457094977</v>
       </c>
       <c r="C6" t="n">
-        <v>-37611.05303185608</v>
+        <v>-37611.05303185622</v>
       </c>
       <c r="D6" t="n">
-        <v>-37611.05303185611</v>
+        <v>-37611.05303185605</v>
       </c>
       <c r="E6" t="n">
-        <v>-603701.861485902</v>
+        <v>-603785.5903761669</v>
       </c>
       <c r="F6" t="n">
-        <v>-76755.33086867903</v>
+        <v>-76791.22785054512</v>
       </c>
       <c r="G6" t="n">
-        <v>135292.8817834763</v>
+        <v>135256.98480161</v>
       </c>
       <c r="H6" t="n">
-        <v>135292.8817834739</v>
+        <v>135256.9848016098</v>
       </c>
       <c r="I6" t="n">
-        <v>135292.8817834739</v>
+        <v>135256.9848016098</v>
       </c>
       <c r="J6" t="n">
-        <v>-47715.15189780118</v>
+        <v>-47749.88982323277</v>
       </c>
       <c r="K6" t="n">
-        <v>135953.8574814242</v>
+        <v>135919.1195559885</v>
       </c>
       <c r="L6" t="n">
-        <v>135953.8574814243</v>
+        <v>135919.1195559886</v>
       </c>
       <c r="M6" t="n">
-        <v>-13644.96614316355</v>
+        <v>-13644.96614316347</v>
       </c>
       <c r="N6" t="n">
-        <v>130089.9632406057</v>
+        <v>130089.9632406055</v>
       </c>
       <c r="O6" t="n">
         <v>130089.9632406057</v>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230864</v>
+        <v>268.2643481230889</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.390797341884012e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.93445162529224</v>
+        <v>9.934451625286556</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591158</v>
+        <v>673.8912089591163</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>1.538269475531422</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>278.2028881486265</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.237368633410455</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>40.39567088658742</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>28.6963313411357</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>98.34909465830071</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>160.6508054802593</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>133.8057042310865</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22.28438374073647</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>150.8622703298873</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>115.9460234352728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>12.48683429008011</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377421</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122277</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704057</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874061</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830424</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364255</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293299</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229599</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086944</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687517</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148601</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987159</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854256</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665717</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901936</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540903</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088188</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>187.876017639653</v>
+        <v>420.766193382321</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504294</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927631</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426198</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982449</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286949</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862155</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013752</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291841</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548565</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284919</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273331</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900883</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640615</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265019</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416871</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465959</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282421</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.064198356174</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860858</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851324</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551968</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704642</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P17" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396602</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982436</v>
+        <v>180.842445544117</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286941</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M19" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P20" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684821</v>
+        <v>319.853612748864</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927615</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982436</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.6554855117312</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M22" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K24" t="n">
-        <v>471.688653684821</v>
+        <v>140.3328138609298</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504278</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P24" t="n">
-        <v>357.0213665833263</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33044,7 +33044,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,28 +33260,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33752,13 +33752,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>556.53673676806</v>
       </c>
       <c r="P11" t="n">
-        <v>629.1605861701215</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607198</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380619</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664384</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M14" t="n">
-        <v>779.6000841311543</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263689</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870076</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134821</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404106</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845838</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977877</v>
+        <v>282.2118136024468</v>
       </c>
       <c r="M15" t="n">
-        <v>597.998337628411</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094298</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981754</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839146</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426734</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066035</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642055</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243777</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883424</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209157</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606356</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931356</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P17" t="n">
-        <v>605.1570404425928</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785978599</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981739</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839134</v>
+        <v>46.86803812978678</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426726</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664365</v>
+        <v>677.0902038955228</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710462</v>
+        <v>182.012173774505</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946964</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094282</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.67371142570968</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>741.072280616118</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K24" t="n">
-        <v>333.847214710462</v>
+        <v>2.491374886570804</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284094</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P24" t="n">
-        <v>223.0469591689961</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
